--- a/DLB.xlsx
+++ b/DLB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mysun/Desktop/ODL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65272F9-45AB-C348-82F4-9BEEA80EFD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A9D83-76AF-DD41-B218-8F8036198C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="-13900" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,6 +755,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,21 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,35 +1122,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="14">
       <c r="D2" s="10" t="s">
@@ -1186,15 +1186,15 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="19"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="15" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1342,14 +1342,14 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="24"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="24"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>36</v>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>37</v>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -1536,14 +1536,14 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="24"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1606,7 +1606,7 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>37</v>
@@ -1669,7 +1669,7 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1734,14 +1734,14 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="24"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16">
-      <c r="A14" s="24"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>36</v>
@@ -1804,7 +1804,7 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="24"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>37</v>
@@ -1867,7 +1867,7 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="14">
-      <c r="A16" s="24"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -1876,28 +1876,28 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="24"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -1906,28 +1906,28 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="24"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="24"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="28">
-      <c r="A24" s="24"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
@@ -1990,14 +1990,14 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="24"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="16">
-      <c r="A26" s="24"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
         <v>36</v>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="16">
-      <c r="A27" s="24"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
         <v>37</v>
@@ -2119,7 +2119,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
@@ -2182,14 +2182,14 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="24"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16">
-      <c r="A30" s="24"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>36</v>
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="16">
-      <c r="A31" s="24"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>37</v>
@@ -2311,7 +2311,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="16">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
@@ -2374,14 +2374,14 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="24"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="16">
-      <c r="A34" s="24"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
         <v>36</v>
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16">
-      <c r="A35" s="24"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>37</v>
@@ -2503,7 +2503,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16">
-      <c r="A36" s="24"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -2566,14 +2566,14 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="24"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16">
-      <c r="A38" s="24"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>36</v>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16">
-      <c r="A39" s="24"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
         <v>37</v>
@@ -2695,7 +2695,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16">
-      <c r="A40" s="24"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -2758,14 +2758,14 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="24"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16">
-      <c r="A42" s="24"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
         <v>36</v>
@@ -2826,7 +2826,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16">
-      <c r="A43" s="24"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
         <v>37</v>
@@ -2887,7 +2887,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="14">
-      <c r="A44" s="24"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
@@ -2896,28 +2896,28 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="24"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="24"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="24"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="16">
-      <c r="A48" s="24"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
@@ -2982,14 +2982,14 @@
       <c r="X48" s="4"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="24"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="16">
-      <c r="A50" s="24"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
         <v>36</v>
@@ -3050,7 +3050,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="16">
-      <c r="A51" s="24"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
         <v>37</v>
@@ -3111,7 +3111,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="14">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3122,28 +3122,28 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="26"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="26"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="26"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="14">
-      <c r="A57" s="26"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
@@ -3152,28 +3152,28 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="26"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="26"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="26"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14">
-      <c r="A61" s="26"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>51</v>
       </c>
@@ -3182,28 +3182,28 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="26"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="26"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="26"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14">
-      <c r="A65" s="26"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
@@ -3212,28 +3212,28 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="26"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="26"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14">
-      <c r="A69" s="26"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>53</v>
       </c>
@@ -3242,28 +3242,28 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="26"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="26"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="26"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14">
-      <c r="A73" s="26"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="2" t="s">
         <v>54</v>
       </c>
@@ -3272,28 +3272,28 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="26"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="26"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="26"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14">
-      <c r="A77" s="26"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="2" t="s">
         <v>55</v>
       </c>
@@ -3302,28 +3302,28 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="26"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="26"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="26"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="16">
-      <c r="A81" s="26"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>56</v>
       </c>
@@ -3386,14 +3386,14 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="26"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="16">
-      <c r="A83" s="26"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -3454,7 +3454,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="16">
-      <c r="A84" s="26"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="14">
-      <c r="A85" s="26"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
@@ -3524,28 +3524,28 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="26"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87" s="26"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="26"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="14">
-      <c r="A89" s="26"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="2" t="s">
         <v>58</v>
       </c>
@@ -3554,28 +3554,28 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="26"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24">
-      <c r="A91" s="26"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:24">
-      <c r="A92" s="26"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="16">
-      <c r="A93" s="26"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="2" t="s">
         <v>59</v>
       </c>
@@ -3640,14 +3640,14 @@
       <c r="X93" s="17"/>
     </row>
     <row r="94" spans="1:24">
-      <c r="A94" s="26"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="16">
-      <c r="A95" s="26"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
         <v>36</v>
@@ -3710,7 +3710,7 @@
       <c r="X95" s="4"/>
     </row>
     <row r="96" spans="1:24" ht="16">
-      <c r="A96" s="26"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
@@ -3773,7 +3773,7 @@
       <c r="X96" s="4"/>
     </row>
     <row r="97" spans="1:21" ht="16">
-      <c r="A97" s="26"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
@@ -3836,14 +3836,14 @@
       </c>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="26"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="16">
-      <c r="A99" s="26"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
         <v>36</v>
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="16">
-      <c r="A100" s="26"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3" t="s">
         <v>37</v>
@@ -3965,7 +3965,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="16">
-      <c r="A101" s="26"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="2" t="s">
         <v>61</v>
       </c>
@@ -4028,14 +4028,14 @@
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="26"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="16">
-      <c r="A103" s="26"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>36</v>
@@ -4096,7 +4096,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" ht="16">
-      <c r="A104" s="26"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3" t="s">
         <v>37</v>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" ht="14">
-      <c r="A105" s="26"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="2" t="s">
         <v>62</v>
       </c>
@@ -4166,28 +4166,28 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="26"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="26"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="26"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="28">
-      <c r="A109" s="26"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="2" t="s">
         <v>63</v>
       </c>
@@ -4196,28 +4196,28 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="26"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="26"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="26"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="16">
-      <c r="A113" s="26"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="2" t="s">
         <v>64</v>
       </c>
@@ -4280,14 +4280,14 @@
       </c>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="26"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="16">
-      <c r="A115" s="26"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="116" spans="1:24" ht="16">
-      <c r="A116" s="26"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3" t="s">
         <v>37</v>
@@ -4409,7 +4409,7 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="14">
-      <c r="A117" s="26"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="2" t="s">
         <v>66</v>
       </c>
@@ -4418,28 +4418,28 @@
       </c>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118" s="26"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="26"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:24">
-      <c r="A120" s="26"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="14">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -4450,28 +4450,28 @@
       </c>
     </row>
     <row r="124" spans="1:24">
-      <c r="A124" s="25"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:24">
-      <c r="A125" s="25"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:24">
-      <c r="A126" s="25"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="16">
-      <c r="A127" s="25"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="5" t="s">
         <v>68</v>
       </c>
@@ -4498,14 +4498,14 @@
       <c r="X127" s="4"/>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="25"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="16">
-      <c r="A129" s="25"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -4530,7 +4530,7 @@
       <c r="X129" s="4"/>
     </row>
     <row r="130" spans="1:24" ht="16">
-      <c r="A130" s="25"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
@@ -4555,7 +4555,7 @@
       <c r="X130" s="4"/>
     </row>
     <row r="131" spans="1:24" ht="16">
-      <c r="A131" s="25"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="5" t="s">
         <v>69</v>
       </c>
@@ -4620,14 +4620,14 @@
       <c r="X131" s="4"/>
     </row>
     <row r="132" spans="1:24">
-      <c r="A132" s="25"/>
+      <c r="A132" s="20"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="16">
-      <c r="A133" s="25"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
@@ -4690,7 +4690,7 @@
       <c r="X133" s="4"/>
     </row>
     <row r="134" spans="1:24" ht="16">
-      <c r="A134" s="25"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
@@ -4753,7 +4753,7 @@
       <c r="X134" s="4"/>
     </row>
     <row r="135" spans="1:24" ht="16">
-      <c r="A135" s="25"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="5" t="s">
         <v>70</v>
       </c>
@@ -4818,14 +4818,14 @@
       <c r="X135" s="4"/>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="25"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="16">
-      <c r="A137" s="25"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
@@ -4888,7 +4888,7 @@
       <c r="X137" s="4"/>
     </row>
     <row r="138" spans="1:24" ht="16">
-      <c r="A138" s="25"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
@@ -4951,7 +4951,7 @@
       <c r="X138" s="4"/>
     </row>
     <row r="139" spans="1:24" ht="16">
-      <c r="A139" s="25"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="5" t="s">
         <v>71</v>
       </c>
@@ -5016,14 +5016,14 @@
       <c r="X139" s="4"/>
     </row>
     <row r="140" spans="1:24">
-      <c r="A140" s="25"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="16">
-      <c r="A141" s="25"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
@@ -5086,7 +5086,7 @@
       <c r="X141" s="4"/>
     </row>
     <row r="142" spans="1:24" ht="16">
-      <c r="A142" s="25"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
@@ -5149,7 +5149,7 @@
       <c r="X142" s="4"/>
     </row>
     <row r="143" spans="1:24" ht="16">
-      <c r="A143" s="25"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="5" t="s">
         <v>72</v>
       </c>
@@ -5212,14 +5212,14 @@
       </c>
     </row>
     <row r="144" spans="1:24">
-      <c r="A144" s="25"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="16">
-      <c r="A145" s="25"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
@@ -5280,7 +5280,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" ht="16">
-      <c r="A146" s="25"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" ht="16">
-      <c r="A147" s="25"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="5" t="s">
         <v>73</v>
       </c>
@@ -5404,14 +5404,14 @@
       </c>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="25"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="16">
-      <c r="A149" s="25"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
@@ -5472,7 +5472,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" ht="16">
-      <c r="A150" s="25"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
@@ -5533,7 +5533,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" ht="16">
-      <c r="A151" s="25"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="5" t="s">
         <v>74</v>
       </c>
@@ -5596,14 +5596,14 @@
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="25"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="16">
-      <c r="A153" s="25"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
@@ -5664,7 +5664,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" ht="16">
-      <c r="A154" s="25"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" ht="16">
-      <c r="A155" s="25"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="5" t="s">
         <v>75</v>
       </c>
@@ -5788,14 +5788,14 @@
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="25"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="16">
-      <c r="A157" s="25"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
@@ -5856,7 +5856,7 @@
       </c>
     </row>
     <row r="158" spans="1:21" ht="16">
-      <c r="A158" s="25"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
@@ -5917,7 +5917,7 @@
       </c>
     </row>
     <row r="159" spans="1:21" ht="16">
-      <c r="A159" s="25"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="5" t="s">
         <v>76</v>
       </c>
@@ -5980,14 +5980,14 @@
       </c>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="25"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="16">
-      <c r="A161" s="25"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
@@ -6048,7 +6048,7 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="16">
-      <c r="A162" s="25"/>
+      <c r="A162" s="20"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
@@ -6109,7 +6109,7 @@
       </c>
     </row>
     <row r="163" spans="1:24" ht="16">
-      <c r="A163" s="25"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="5" t="s">
         <v>77</v>
       </c>
@@ -6174,14 +6174,14 @@
       <c r="X163" s="4"/>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="25"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16">
-      <c r="A165" s="25"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
@@ -6244,7 +6244,7 @@
       <c r="X165" s="4"/>
     </row>
     <row r="166" spans="1:24" ht="16">
-      <c r="A166" s="25"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
@@ -6307,7 +6307,7 @@
       <c r="X166" s="4"/>
     </row>
     <row r="167" spans="1:24" ht="14">
-      <c r="A167" s="25"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="5" t="s">
         <v>78</v>
       </c>
@@ -6316,28 +6316,28 @@
       </c>
     </row>
     <row r="168" spans="1:24">
-      <c r="A168" s="25"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:24">
-      <c r="A169" s="25"/>
+      <c r="A169" s="20"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:24">
-      <c r="A170" s="25"/>
+      <c r="A170" s="20"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="16">
-      <c r="A171" s="25"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="5" t="s">
         <v>79</v>
       </c>
@@ -6400,14 +6400,14 @@
       </c>
     </row>
     <row r="172" spans="1:24">
-      <c r="A172" s="25"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="16">
-      <c r="A173" s="25"/>
+      <c r="A173" s="20"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="174" spans="1:24" ht="16">
-      <c r="A174" s="25"/>
+      <c r="A174" s="20"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
@@ -6529,7 +6529,7 @@
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
-      <c r="A175" s="25"/>
+      <c r="A175" s="20"/>
       <c r="B175" s="6" t="s">
         <v>80</v>
       </c>
@@ -6592,14 +6592,14 @@
       </c>
     </row>
     <row r="176" spans="1:24">
-      <c r="A176" s="25"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:21" ht="16">
-      <c r="A177" s="25"/>
+      <c r="A177" s="20"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="16">
-      <c r="A178" s="25"/>
+      <c r="A178" s="20"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="179" spans="1:21" ht="28">
-      <c r="A179" s="25"/>
+      <c r="A179" s="20"/>
       <c r="B179" s="5" t="s">
         <v>81</v>
       </c>
@@ -6784,14 +6784,14 @@
       </c>
     </row>
     <row r="180" spans="1:21">
-      <c r="A180" s="25"/>
+      <c r="A180" s="20"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="16">
-      <c r="A181" s="25"/>
+      <c r="A181" s="20"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="182" spans="1:21" ht="16">
-      <c r="A182" s="25"/>
+      <c r="A182" s="20"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
@@ -6913,7 +6913,7 @@
       </c>
     </row>
     <row r="183" spans="1:21" ht="28">
-      <c r="A183" s="25"/>
+      <c r="A183" s="20"/>
       <c r="B183" s="5" t="s">
         <v>82</v>
       </c>
@@ -6976,14 +6976,14 @@
       </c>
     </row>
     <row r="184" spans="1:21">
-      <c r="A184" s="25"/>
+      <c r="A184" s="20"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="16">
-      <c r="A185" s="25"/>
+      <c r="A185" s="20"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
@@ -7044,7 +7044,7 @@
       </c>
     </row>
     <row r="186" spans="1:21" ht="16">
-      <c r="A186" s="25"/>
+      <c r="A186" s="20"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
@@ -7105,7 +7105,7 @@
       </c>
     </row>
     <row r="187" spans="1:21" ht="28">
-      <c r="A187" s="25"/>
+      <c r="A187" s="20"/>
       <c r="B187" s="5" t="s">
         <v>83</v>
       </c>
@@ -7168,7 +7168,7 @@
       </c>
     </row>
     <row r="188" spans="1:21" ht="16">
-      <c r="A188" s="25"/>
+      <c r="A188" s="20"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="189" spans="1:21" ht="16">
-      <c r="A189" s="25"/>
+      <c r="A189" s="20"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
@@ -7290,14 +7290,14 @@
       </c>
     </row>
     <row r="190" spans="1:21">
-      <c r="A190" s="25"/>
+      <c r="A190" s="20"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:21">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
@@ -7308,28 +7308,28 @@
       </c>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="27"/>
+      <c r="A193" s="22"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="27"/>
+      <c r="A194" s="22"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="27"/>
+      <c r="A195" s="22"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="28">
-      <c r="A196" s="27"/>
+      <c r="A196" s="22"/>
       <c r="B196" s="11" t="s">
         <v>85</v>
       </c>
@@ -7338,28 +7338,28 @@
       </c>
     </row>
     <row r="197" spans="1:21">
-      <c r="A197" s="27"/>
+      <c r="A197" s="22"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:21">
-      <c r="A198" s="27"/>
+      <c r="A198" s="22"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:21">
-      <c r="A199" s="27"/>
+      <c r="A199" s="22"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="14">
-      <c r="A200" s="27"/>
+      <c r="A200" s="22"/>
       <c r="B200" s="11" t="s">
         <v>86</v>
       </c>
@@ -7368,28 +7368,28 @@
       </c>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="27"/>
+      <c r="A201" s="22"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="27"/>
+      <c r="A202" s="22"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="27"/>
+      <c r="A203" s="22"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:21" ht="14">
-      <c r="A204" s="27"/>
+      <c r="A204" s="22"/>
       <c r="B204" s="11" t="s">
         <v>87</v>
       </c>
@@ -7398,28 +7398,28 @@
       </c>
     </row>
     <row r="205" spans="1:21">
-      <c r="A205" s="27"/>
+      <c r="A205" s="22"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:21">
-      <c r="A206" s="27"/>
+      <c r="A206" s="22"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:21">
-      <c r="A207" s="27"/>
+      <c r="A207" s="22"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="16">
-      <c r="A208" s="27"/>
+      <c r="A208" s="22"/>
       <c r="B208" s="11" t="s">
         <v>88</v>
       </c>
@@ -7482,14 +7482,14 @@
       </c>
     </row>
     <row r="209" spans="1:21">
-      <c r="A209" s="27"/>
+      <c r="A209" s="22"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="16">
-      <c r="A210" s="27"/>
+      <c r="A210" s="22"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8" t="s">
         <v>36</v>
@@ -7550,7 +7550,7 @@
       </c>
     </row>
     <row r="211" spans="1:21" ht="16">
-      <c r="A211" s="27"/>
+      <c r="A211" s="22"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
         <v>37</v>
@@ -7611,7 +7611,7 @@
       </c>
     </row>
     <row r="212" spans="1:21" ht="28">
-      <c r="A212" s="27"/>
+      <c r="A212" s="22"/>
       <c r="B212" s="11" t="s">
         <v>89</v>
       </c>
@@ -7620,28 +7620,28 @@
       </c>
     </row>
     <row r="213" spans="1:21">
-      <c r="A213" s="27"/>
+      <c r="A213" s="22"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:21">
-      <c r="A214" s="27"/>
+      <c r="A214" s="22"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:21">
-      <c r="A215" s="27"/>
+      <c r="A215" s="22"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="14">
-      <c r="A216" s="27"/>
+      <c r="A216" s="22"/>
       <c r="B216" s="11" t="s">
         <v>90</v>
       </c>
@@ -7650,28 +7650,28 @@
       </c>
     </row>
     <row r="217" spans="1:21">
-      <c r="A217" s="27"/>
+      <c r="A217" s="22"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:21">
-      <c r="A218" s="27"/>
+      <c r="A218" s="22"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:21">
-      <c r="A219" s="27"/>
+      <c r="A219" s="22"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:21" ht="14">
-      <c r="A220" s="27"/>
+      <c r="A220" s="22"/>
       <c r="B220" s="11" t="s">
         <v>91</v>
       </c>
@@ -7680,28 +7680,28 @@
       </c>
     </row>
     <row r="221" spans="1:21">
-      <c r="A221" s="27"/>
+      <c r="A221" s="22"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:21">
-      <c r="A222" s="27"/>
+      <c r="A222" s="22"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:21">
-      <c r="A223" s="27"/>
+      <c r="A223" s="22"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:21" ht="14">
-      <c r="A224" s="27"/>
+      <c r="A224" s="22"/>
       <c r="B224" s="11" t="s">
         <v>92</v>
       </c>
@@ -7710,28 +7710,28 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="27"/>
+      <c r="A225" s="22"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="27"/>
+      <c r="A226" s="22"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="27"/>
+      <c r="A227" s="22"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="27"/>
+      <c r="A228" s="22"/>
       <c r="B228" s="7" t="s">
         <v>93</v>
       </c>
@@ -7740,21 +7740,21 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="27"/>
+      <c r="A229" s="22"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="27"/>
+      <c r="A230" s="22"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="27"/>
+      <c r="A231" s="22"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8" t="s">
         <v>37</v>
@@ -7762,16 +7762,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A4:A51"/>
     <mergeCell ref="A123:A190"/>
     <mergeCell ref="A53:A120"/>
     <mergeCell ref="A192:A231"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7787,8 +7787,8 @@
   <dimension ref="A1:X231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="3" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K227" sqref="K227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
@@ -7801,35 +7801,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="14">
       <c r="D2" s="10" t="s">
@@ -7865,15 +7865,15 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="19"/>
+      <c r="S2" s="24"/>
       <c r="T2" s="15" t="s">
         <v>17</v>
       </c>
@@ -7956,7 +7956,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -7970,7 +7970,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="24"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>35</v>
@@ -7980,7 +7980,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="16">
-      <c r="A6" s="24"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>36</v>
@@ -8041,7 +8041,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>37</v>
@@ -8102,7 +8102,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -8167,14 +8167,14 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16">
-      <c r="A10" s="24"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -8237,7 +8237,7 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="16">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>37</v>
@@ -8300,7 +8300,7 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="16">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -8365,14 +8365,14 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="24"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="24"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>36</v>
@@ -8382,7 +8382,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16">
-      <c r="A15" s="24"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>37</v>
@@ -8445,7 +8445,7 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="14">
-      <c r="A16" s="24"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -8454,28 +8454,28 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="24"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -8484,28 +8484,28 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="24"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="24"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="28">
-      <c r="A24" s="24"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
@@ -8568,14 +8568,14 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="24"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="16">
-      <c r="A26" s="24"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
         <v>36</v>
@@ -8636,7 +8636,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="16">
-      <c r="A27" s="24"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
         <v>37</v>
@@ -8697,7 +8697,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
@@ -8760,14 +8760,14 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="24"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="16">
-      <c r="A30" s="24"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>36</v>
@@ -8828,7 +8828,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="16">
-      <c r="A31" s="24"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>37</v>
@@ -8889,7 +8889,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="16">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
@@ -8952,14 +8952,14 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="24"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="16">
-      <c r="A34" s="24"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
         <v>36</v>
@@ -9020,7 +9020,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="16">
-      <c r="A35" s="24"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>37</v>
@@ -9081,7 +9081,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="16">
-      <c r="A36" s="24"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -9144,14 +9144,14 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="24"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="16">
-      <c r="A38" s="24"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>36</v>
@@ -9212,7 +9212,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16">
-      <c r="A39" s="24"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
         <v>37</v>
@@ -9273,7 +9273,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="16">
-      <c r="A40" s="24"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -9336,14 +9336,14 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="24"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="16">
-      <c r="A42" s="24"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
         <v>36</v>
@@ -9404,7 +9404,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="16">
-      <c r="A43" s="24"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
         <v>37</v>
@@ -9465,7 +9465,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="14">
-      <c r="A44" s="24"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
@@ -9474,28 +9474,28 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="24"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="24"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="24"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="16">
-      <c r="A48" s="24"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
@@ -9558,7 +9558,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="16">
-      <c r="A49" s="24"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
         <v>35</v>
@@ -9574,7 +9574,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="16">
-      <c r="A50" s="24"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
         <v>36</v>
@@ -9635,7 +9635,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="16">
-      <c r="A51" s="24"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
         <v>37</v>
@@ -9696,7 +9696,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="14">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -9707,28 +9707,28 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="26"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="26"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="26"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="14">
-      <c r="A57" s="26"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
@@ -9737,28 +9737,28 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="26"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="26"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="26"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14">
-      <c r="A61" s="26"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>51</v>
       </c>
@@ -9767,28 +9767,28 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="26"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="26"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="26"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="14">
-      <c r="A65" s="26"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
@@ -9797,28 +9797,28 @@
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="26"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="26"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="26"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="14">
-      <c r="A69" s="26"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>53</v>
       </c>
@@ -9827,28 +9827,28 @@
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="26"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="26"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="26"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="14">
-      <c r="A73" s="26"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="2" t="s">
         <v>54</v>
       </c>
@@ -9857,28 +9857,28 @@
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="26"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="26"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="26"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="16">
-      <c r="A77" s="26"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="2" t="s">
         <v>55</v>
       </c>
@@ -9941,14 +9941,14 @@
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="26"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="16">
-      <c r="A79" s="26"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
@@ -10009,7 +10009,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" ht="16">
-      <c r="A80" s="26"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
@@ -10070,7 +10070,7 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="16">
-      <c r="A81" s="26"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>56</v>
       </c>
@@ -10133,14 +10133,14 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="26"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="16">
-      <c r="A83" s="26"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -10201,7 +10201,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="16">
-      <c r="A84" s="26"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -10262,7 +10262,7 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="14">
-      <c r="A85" s="26"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
@@ -10271,28 +10271,28 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="26"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87" s="26"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="26"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="14">
-      <c r="A89" s="26"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="2" t="s">
         <v>58</v>
       </c>
@@ -10301,28 +10301,28 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="26"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24">
-      <c r="A91" s="26"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:24">
-      <c r="A92" s="26"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="16">
-      <c r="A93" s="26"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="2" t="s">
         <v>59</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="X93" s="17"/>
     </row>
     <row r="94" spans="1:24" ht="16">
-      <c r="A94" s="26"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
         <v>35</v>
@@ -10403,7 +10403,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16">
-      <c r="A95" s="26"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
         <v>36</v>
@@ -10466,7 +10466,7 @@
       <c r="X95" s="4"/>
     </row>
     <row r="96" spans="1:24" ht="16">
-      <c r="A96" s="26"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
@@ -10522,7 +10522,7 @@
       <c r="X96" s="4"/>
     </row>
     <row r="97" spans="1:21" ht="16">
-      <c r="A97" s="26"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
@@ -10585,14 +10585,14 @@
       </c>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="26"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="16">
-      <c r="A99" s="26"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
         <v>36</v>
@@ -10653,7 +10653,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="16">
-      <c r="A100" s="26"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3" t="s">
         <v>37</v>
@@ -10714,7 +10714,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="16">
-      <c r="A101" s="26"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="2" t="s">
         <v>61</v>
       </c>
@@ -10777,14 +10777,14 @@
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="26"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="16">
-      <c r="A103" s="26"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>36</v>
@@ -10845,7 +10845,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" ht="16">
-      <c r="A104" s="26"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3" t="s">
         <v>37</v>
@@ -10906,7 +10906,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" ht="14">
-      <c r="A105" s="26"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="2" t="s">
         <v>62</v>
       </c>
@@ -10918,28 +10918,28 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="26"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="26"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="26"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="28">
-      <c r="A109" s="26"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="2" t="s">
         <v>63</v>
       </c>
@@ -10948,28 +10948,28 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="26"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="26"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="26"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="16">
-      <c r="A113" s="26"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="2" t="s">
         <v>64</v>
       </c>
@@ -11032,14 +11032,14 @@
       </c>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="26"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="16">
-      <c r="A115" s="26"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
         <v>36</v>
@@ -11100,7 +11100,7 @@
       </c>
     </row>
     <row r="116" spans="1:24" ht="16">
-      <c r="A116" s="26"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3" t="s">
         <v>37</v>
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="117" spans="1:24" ht="14">
-      <c r="A117" s="26"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="2" t="s">
         <v>66</v>
       </c>
@@ -11170,28 +11170,28 @@
       </c>
     </row>
     <row r="118" spans="1:24">
-      <c r="A118" s="26"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="26"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:24">
-      <c r="A120" s="26"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="16">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -11256,14 +11256,14 @@
       </c>
     </row>
     <row r="124" spans="1:24">
-      <c r="A124" s="25"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="16">
-      <c r="A125" s="25"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
@@ -11324,7 +11324,7 @@
       </c>
     </row>
     <row r="126" spans="1:24" ht="16">
-      <c r="A126" s="25"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
@@ -11385,7 +11385,7 @@
       </c>
     </row>
     <row r="127" spans="1:24" ht="16">
-      <c r="A127" s="25"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="5" t="s">
         <v>68</v>
       </c>
@@ -11450,14 +11450,14 @@
       <c r="X127" s="4"/>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" s="25"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="16">
-      <c r="A129" s="25"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -11520,7 +11520,7 @@
       <c r="X129" s="4"/>
     </row>
     <row r="130" spans="1:24" ht="16">
-      <c r="A130" s="25"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
@@ -11583,7 +11583,7 @@
       <c r="X130" s="4"/>
     </row>
     <row r="131" spans="1:24" ht="16">
-      <c r="A131" s="25"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="5" t="s">
         <v>69</v>
       </c>
@@ -11648,14 +11648,14 @@
       <c r="X131" s="4"/>
     </row>
     <row r="132" spans="1:24">
-      <c r="A132" s="25"/>
+      <c r="A132" s="20"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="16">
-      <c r="A133" s="25"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
@@ -11718,7 +11718,7 @@
       <c r="X133" s="4"/>
     </row>
     <row r="134" spans="1:24" ht="16">
-      <c r="A134" s="25"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
@@ -11781,7 +11781,7 @@
       <c r="X134" s="4"/>
     </row>
     <row r="135" spans="1:24" ht="16">
-      <c r="A135" s="25"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="5" t="s">
         <v>70</v>
       </c>
@@ -11846,14 +11846,14 @@
       <c r="X135" s="4"/>
     </row>
     <row r="136" spans="1:24">
-      <c r="A136" s="25"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="16">
-      <c r="A137" s="25"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
@@ -11916,7 +11916,7 @@
       <c r="X137" s="4"/>
     </row>
     <row r="138" spans="1:24" ht="16">
-      <c r="A138" s="25"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
@@ -11979,7 +11979,7 @@
       <c r="X138" s="4"/>
     </row>
     <row r="139" spans="1:24" ht="16">
-      <c r="A139" s="25"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="5" t="s">
         <v>71</v>
       </c>
@@ -12044,14 +12044,14 @@
       <c r="X139" s="4"/>
     </row>
     <row r="140" spans="1:24">
-      <c r="A140" s="25"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="16">
-      <c r="A141" s="25"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
@@ -12114,7 +12114,7 @@
       <c r="X141" s="4"/>
     </row>
     <row r="142" spans="1:24" ht="16">
-      <c r="A142" s="25"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
@@ -12177,7 +12177,7 @@
       <c r="X142" s="4"/>
     </row>
     <row r="143" spans="1:24" ht="16">
-      <c r="A143" s="25"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="5" t="s">
         <v>72</v>
       </c>
@@ -12240,14 +12240,14 @@
       </c>
     </row>
     <row r="144" spans="1:24">
-      <c r="A144" s="25"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="16">
-      <c r="A145" s="25"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
@@ -12308,7 +12308,7 @@
       </c>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="25"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
@@ -12318,7 +12318,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" ht="16">
-      <c r="A147" s="25"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="5" t="s">
         <v>73</v>
       </c>
@@ -12381,14 +12381,14 @@
       </c>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="25"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="16">
-      <c r="A149" s="25"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
@@ -12449,7 +12449,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" ht="16">
-      <c r="A150" s="25"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
@@ -12510,7 +12510,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" ht="16">
-      <c r="A151" s="25"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="5" t="s">
         <v>74</v>
       </c>
@@ -12573,14 +12573,14 @@
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="25"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="16">
-      <c r="A153" s="25"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
@@ -12641,7 +12641,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" ht="16">
-      <c r="A154" s="25"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
@@ -12702,7 +12702,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" ht="16">
-      <c r="A155" s="25"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="5" t="s">
         <v>75</v>
       </c>
@@ -12765,14 +12765,14 @@
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="25"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="16">
-      <c r="A157" s="25"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
@@ -12833,7 +12833,7 @@
       </c>
     </row>
     <row r="158" spans="1:21" ht="16">
-      <c r="A158" s="25"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
@@ -12894,7 +12894,7 @@
       </c>
     </row>
     <row r="159" spans="1:21" ht="16">
-      <c r="A159" s="25"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="5" t="s">
         <v>76</v>
       </c>
@@ -12957,14 +12957,14 @@
       </c>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="25"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="16">
-      <c r="A161" s="25"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
@@ -13025,7 +13025,7 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="16">
-      <c r="A162" s="25"/>
+      <c r="A162" s="20"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
@@ -13086,7 +13086,7 @@
       </c>
     </row>
     <row r="163" spans="1:24" ht="16">
-      <c r="A163" s="25"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="5" t="s">
         <v>77</v>
       </c>
@@ -13151,14 +13151,14 @@
       <c r="X163" s="4"/>
     </row>
     <row r="164" spans="1:24">
-      <c r="A164" s="25"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16">
-      <c r="A165" s="25"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
@@ -13221,7 +13221,7 @@
       <c r="X165" s="4"/>
     </row>
     <row r="166" spans="1:24" ht="16">
-      <c r="A166" s="25"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
@@ -13284,7 +13284,7 @@
       <c r="X166" s="4"/>
     </row>
     <row r="167" spans="1:24" ht="14">
-      <c r="A167" s="25"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="5" t="s">
         <v>78</v>
       </c>
@@ -13293,28 +13293,28 @@
       </c>
     </row>
     <row r="168" spans="1:24">
-      <c r="A168" s="25"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:24">
-      <c r="A169" s="25"/>
+      <c r="A169" s="20"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:24">
-      <c r="A170" s="25"/>
+      <c r="A170" s="20"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="16">
-      <c r="A171" s="25"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="5" t="s">
         <v>79</v>
       </c>
@@ -13377,14 +13377,14 @@
       </c>
     </row>
     <row r="172" spans="1:24">
-      <c r="A172" s="25"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="16">
-      <c r="A173" s="25"/>
+      <c r="A173" s="20"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
@@ -13445,7 +13445,7 @@
       </c>
     </row>
     <row r="174" spans="1:24" ht="16">
-      <c r="A174" s="25"/>
+      <c r="A174" s="20"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
@@ -13506,7 +13506,7 @@
       </c>
     </row>
     <row r="175" spans="1:24" ht="16">
-      <c r="A175" s="25"/>
+      <c r="A175" s="20"/>
       <c r="B175" s="6" t="s">
         <v>80</v>
       </c>
@@ -13569,7 +13569,7 @@
       </c>
     </row>
     <row r="176" spans="1:24" ht="16">
-      <c r="A176" s="25"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
@@ -13600,7 +13600,7 @@
       </c>
     </row>
     <row r="177" spans="1:21" ht="16">
-      <c r="A177" s="25"/>
+      <c r="A177" s="20"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
@@ -13661,7 +13661,7 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="16">
-      <c r="A178" s="25"/>
+      <c r="A178" s="20"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
@@ -13722,7 +13722,7 @@
       </c>
     </row>
     <row r="179" spans="1:21" ht="28">
-      <c r="A179" s="25"/>
+      <c r="A179" s="20"/>
       <c r="B179" s="5" t="s">
         <v>81</v>
       </c>
@@ -13785,14 +13785,14 @@
       </c>
     </row>
     <row r="180" spans="1:21">
-      <c r="A180" s="25"/>
+      <c r="A180" s="20"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="16">
-      <c r="A181" s="25"/>
+      <c r="A181" s="20"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
@@ -13853,7 +13853,7 @@
       </c>
     </row>
     <row r="182" spans="1:21" ht="16">
-      <c r="A182" s="25"/>
+      <c r="A182" s="20"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
@@ -13914,7 +13914,7 @@
       </c>
     </row>
     <row r="183" spans="1:21" ht="28">
-      <c r="A183" s="25"/>
+      <c r="A183" s="20"/>
       <c r="B183" s="5" t="s">
         <v>82</v>
       </c>
@@ -13977,14 +13977,14 @@
       </c>
     </row>
     <row r="184" spans="1:21">
-      <c r="A184" s="25"/>
+      <c r="A184" s="20"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="16">
-      <c r="A185" s="25"/>
+      <c r="A185" s="20"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
@@ -14045,7 +14045,7 @@
       </c>
     </row>
     <row r="186" spans="1:21" ht="16">
-      <c r="A186" s="25"/>
+      <c r="A186" s="20"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
@@ -14106,7 +14106,7 @@
       </c>
     </row>
     <row r="187" spans="1:21" ht="28">
-      <c r="A187" s="25"/>
+      <c r="A187" s="20"/>
       <c r="B187" s="5" t="s">
         <v>83</v>
       </c>
@@ -14169,14 +14169,14 @@
       </c>
     </row>
     <row r="188" spans="1:21">
-      <c r="A188" s="25"/>
+      <c r="A188" s="20"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:21" ht="16">
-      <c r="A189" s="25"/>
+      <c r="A189" s="20"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
@@ -14237,7 +14237,7 @@
       </c>
     </row>
     <row r="190" spans="1:21" ht="16">
-      <c r="A190" s="25"/>
+      <c r="A190" s="20"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
@@ -14298,7 +14298,7 @@
       </c>
     </row>
     <row r="192" spans="1:21">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
@@ -14309,28 +14309,28 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="27"/>
+      <c r="A193" s="22"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="27"/>
+      <c r="A194" s="22"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="27"/>
+      <c r="A195" s="22"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="28">
-      <c r="A196" s="27"/>
+      <c r="A196" s="22"/>
       <c r="B196" s="11" t="s">
         <v>85</v>
       </c>
@@ -14339,28 +14339,28 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="27"/>
+      <c r="A197" s="22"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="27"/>
+      <c r="A198" s="22"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="27"/>
+      <c r="A199" s="22"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14">
-      <c r="A200" s="27"/>
+      <c r="A200" s="22"/>
       <c r="B200" s="11" t="s">
         <v>86</v>
       </c>
@@ -14369,28 +14369,28 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="27"/>
+      <c r="A201" s="22"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="27"/>
+      <c r="A202" s="22"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="27"/>
+      <c r="A203" s="22"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14">
-      <c r="A204" s="27"/>
+      <c r="A204" s="22"/>
       <c r="B204" s="11" t="s">
         <v>87</v>
       </c>
@@ -14399,28 +14399,28 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="27"/>
+      <c r="A205" s="22"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="27"/>
+      <c r="A206" s="22"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="27"/>
+      <c r="A207" s="22"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14">
-      <c r="A208" s="27"/>
+      <c r="A208" s="22"/>
       <c r="B208" s="11" t="s">
         <v>88</v>
       </c>
@@ -14429,28 +14429,28 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="27"/>
+      <c r="A209" s="22"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="27"/>
+      <c r="A210" s="22"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="27"/>
+      <c r="A211" s="22"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="28">
-      <c r="A212" s="27"/>
+      <c r="A212" s="22"/>
       <c r="B212" s="11" t="s">
         <v>89</v>
       </c>
@@ -14459,28 +14459,28 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="27"/>
+      <c r="A213" s="22"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="27"/>
+      <c r="A214" s="22"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="27"/>
+      <c r="A215" s="22"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14">
-      <c r="A216" s="27"/>
+      <c r="A216" s="22"/>
       <c r="B216" s="11" t="s">
         <v>90</v>
       </c>
@@ -14489,28 +14489,28 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="27"/>
+      <c r="A217" s="22"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="27"/>
+      <c r="A218" s="22"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="27"/>
+      <c r="A219" s="22"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14">
-      <c r="A220" s="27"/>
+      <c r="A220" s="22"/>
       <c r="B220" s="11" t="s">
         <v>91</v>
       </c>
@@ -14519,28 +14519,28 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="27"/>
+      <c r="A221" s="22"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="27"/>
+      <c r="A222" s="22"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="27"/>
+      <c r="A223" s="22"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14">
-      <c r="A224" s="27"/>
+      <c r="A224" s="22"/>
       <c r="B224" s="11" t="s">
         <v>92</v>
       </c>
@@ -14549,28 +14549,28 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="27"/>
+      <c r="A225" s="22"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="27"/>
+      <c r="A226" s="22"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="27"/>
+      <c r="A227" s="22"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="27"/>
+      <c r="A228" s="22"/>
       <c r="B228" s="7" t="s">
         <v>93</v>
       </c>
@@ -14579,21 +14579,21 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="27"/>
+      <c r="A229" s="22"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="27"/>
+      <c r="A230" s="22"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="27"/>
+      <c r="A231" s="22"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8" t="s">
         <v>37</v>
@@ -14601,16 +14601,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A4:A51"/>
     <mergeCell ref="A123:A190"/>
     <mergeCell ref="A53:A120"/>
     <mergeCell ref="A192:A231"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14642,37 +14642,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:26" ht="14">
       <c r="D2" s="10" t="s">
@@ -14710,15 +14710,15 @@
       <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="19"/>
+      <c r="U2" s="24"/>
       <c r="V2" s="15" t="s">
         <v>17</v>
       </c>
@@ -14807,7 +14807,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -14818,28 +14818,28 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="24"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="24"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -14848,28 +14848,28 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="24"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="24"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -14878,28 +14878,28 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="24"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="24"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="24"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14">
-      <c r="A16" s="24"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -14908,28 +14908,28 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -14938,28 +14938,28 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28">
-      <c r="A24" s="24"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
@@ -14968,28 +14968,28 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
@@ -14998,28 +14998,28 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
@@ -15028,28 +15028,28 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14">
-      <c r="A36" s="24"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -15058,28 +15058,28 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14">
-      <c r="A40" s="24"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="9" t="s">
         <v>46</v>
       </c>
@@ -15088,28 +15088,28 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14">
-      <c r="A44" s="24"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
@@ -15118,28 +15118,28 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14">
-      <c r="A48" s="24"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
@@ -15148,28 +15148,28 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -15180,28 +15180,28 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="26"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="26"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14">
-      <c r="A57" s="26"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
@@ -15210,28 +15210,28 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="26"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="26"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="26"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14">
-      <c r="A61" s="26"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>51</v>
       </c>
@@ -15240,28 +15240,28 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="26"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="26"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14">
-      <c r="A65" s="26"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
@@ -15270,28 +15270,28 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="26"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="26"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14">
-      <c r="A69" s="26"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>53</v>
       </c>
@@ -15300,28 +15300,28 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="26"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="26"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="26"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14">
-      <c r="A73" s="26"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="2" t="s">
         <v>54</v>
       </c>
@@ -15330,28 +15330,28 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="26"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="26"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="26"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14">
-      <c r="A77" s="26"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="2" t="s">
         <v>55</v>
       </c>
@@ -15360,28 +15360,28 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="26"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="26"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="26"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14">
-      <c r="A81" s="26"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2" t="s">
         <v>56</v>
       </c>
@@ -15390,28 +15390,28 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="26"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="26"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="26"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14">
-      <c r="A85" s="26"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
@@ -15420,28 +15420,28 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="26"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="26"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="26"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14">
-      <c r="A89" s="26"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="2" t="s">
         <v>58</v>
       </c>
@@ -15450,28 +15450,28 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="26"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="26"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="26"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14">
-      <c r="A93" s="26"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="2" t="s">
         <v>59</v>
       </c>
@@ -15480,28 +15480,28 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="26"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="26"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="26"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14">
-      <c r="A97" s="26"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
@@ -15510,28 +15510,28 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="26"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="26"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="26"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="1"/>
       <c r="C100" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14">
-      <c r="A101" s="26"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="2" t="s">
         <v>61</v>
       </c>
@@ -15540,28 +15540,28 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="26"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="26"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="26"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14">
-      <c r="A105" s="26"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="2" t="s">
         <v>62</v>
       </c>
@@ -15570,28 +15570,28 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="26"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="1"/>
       <c r="C106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="26"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="26"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="1"/>
       <c r="C108" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="28">
-      <c r="A109" s="26"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="2" t="s">
         <v>63</v>
       </c>
@@ -15600,28 +15600,28 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="26"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="26"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="26"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14">
-      <c r="A113" s="26"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="2" t="s">
         <v>64</v>
       </c>
@@ -15630,28 +15630,28 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="26"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="26"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="26"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14">
-      <c r="A117" s="26"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="2" t="s">
         <v>66</v>
       </c>
@@ -15660,28 +15660,28 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="26"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="26"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="26"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -15692,28 +15692,28 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="25"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="25"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="25"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14">
-      <c r="A127" s="25"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="5" t="s">
         <v>68</v>
       </c>
@@ -15722,28 +15722,28 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="25"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="25"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="25"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14">
-      <c r="A131" s="25"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="5" t="s">
         <v>69</v>
       </c>
@@ -15752,28 +15752,28 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="25"/>
+      <c r="A132" s="20"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="25"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="25"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14">
-      <c r="A135" s="25"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="5" t="s">
         <v>70</v>
       </c>
@@ -15782,28 +15782,28 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="25"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="25"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="25"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14">
-      <c r="A139" s="25"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="5" t="s">
         <v>71</v>
       </c>
@@ -15812,28 +15812,28 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="25"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="25"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="25"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14">
-      <c r="A143" s="25"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="5" t="s">
         <v>72</v>
       </c>
@@ -15842,28 +15842,28 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="25"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="25"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="25"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14">
-      <c r="A147" s="25"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="5" t="s">
         <v>73</v>
       </c>
@@ -15872,28 +15872,28 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="25"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="25"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="25"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14">
-      <c r="A151" s="25"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="5" t="s">
         <v>74</v>
       </c>
@@ -15902,28 +15902,28 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="25"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="25"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="25"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14">
-      <c r="A155" s="25"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="5" t="s">
         <v>75</v>
       </c>
@@ -15932,28 +15932,28 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="25"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="25"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="25"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14">
-      <c r="A159" s="25"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="5" t="s">
         <v>76</v>
       </c>
@@ -15962,28 +15962,28 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="25"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="25"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="25"/>
+      <c r="A162" s="20"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14">
-      <c r="A163" s="25"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="5" t="s">
         <v>77</v>
       </c>
@@ -15992,28 +15992,28 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="25"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="25"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="25"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14">
-      <c r="A167" s="25"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="5" t="s">
         <v>78</v>
       </c>
@@ -16022,28 +16022,28 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="25"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="25"/>
+      <c r="A169" s="20"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="25"/>
+      <c r="A170" s="20"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14">
-      <c r="A171" s="25"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="5" t="s">
         <v>79</v>
       </c>
@@ -16052,28 +16052,28 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="25"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="25"/>
+      <c r="A173" s="20"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="25"/>
+      <c r="A174" s="20"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="25"/>
+      <c r="A175" s="20"/>
       <c r="B175" s="6" t="s">
         <v>80</v>
       </c>
@@ -16082,28 +16082,28 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="25"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="25"/>
+      <c r="A177" s="20"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="25"/>
+      <c r="A178" s="20"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="28">
-      <c r="A179" s="25"/>
+      <c r="A179" s="20"/>
       <c r="B179" s="5" t="s">
         <v>81</v>
       </c>
@@ -16112,28 +16112,28 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="25"/>
+      <c r="A180" s="20"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="25"/>
+      <c r="A181" s="20"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="25"/>
+      <c r="A182" s="20"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="28">
-      <c r="A183" s="25"/>
+      <c r="A183" s="20"/>
       <c r="B183" s="5" t="s">
         <v>82</v>
       </c>
@@ -16142,28 +16142,28 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="25"/>
+      <c r="A184" s="20"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="25"/>
+      <c r="A185" s="20"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="25"/>
+      <c r="A186" s="20"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="28">
-      <c r="A187" s="25"/>
+      <c r="A187" s="20"/>
       <c r="B187" s="5" t="s">
         <v>83</v>
       </c>
@@ -16172,28 +16172,28 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="25"/>
+      <c r="A188" s="20"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="25"/>
+      <c r="A189" s="20"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="25"/>
+      <c r="A190" s="20"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
@@ -16204,28 +16204,28 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="27"/>
+      <c r="A193" s="22"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="27"/>
+      <c r="A194" s="22"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="27"/>
+      <c r="A195" s="22"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="28">
-      <c r="A196" s="27"/>
+      <c r="A196" s="22"/>
       <c r="B196" s="11" t="s">
         <v>85</v>
       </c>
@@ -16234,28 +16234,28 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="27"/>
+      <c r="A197" s="22"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="27"/>
+      <c r="A198" s="22"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="27"/>
+      <c r="A199" s="22"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14">
-      <c r="A200" s="27"/>
+      <c r="A200" s="22"/>
       <c r="B200" s="11" t="s">
         <v>86</v>
       </c>
@@ -16264,28 +16264,28 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="27"/>
+      <c r="A201" s="22"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="27"/>
+      <c r="A202" s="22"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="27"/>
+      <c r="A203" s="22"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14">
-      <c r="A204" s="27"/>
+      <c r="A204" s="22"/>
       <c r="B204" s="11" t="s">
         <v>87</v>
       </c>
@@ -16294,28 +16294,28 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="27"/>
+      <c r="A205" s="22"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="27"/>
+      <c r="A206" s="22"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="27"/>
+      <c r="A207" s="22"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14">
-      <c r="A208" s="27"/>
+      <c r="A208" s="22"/>
       <c r="B208" s="11" t="s">
         <v>88</v>
       </c>
@@ -16324,28 +16324,28 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="27"/>
+      <c r="A209" s="22"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="27"/>
+      <c r="A210" s="22"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="27"/>
+      <c r="A211" s="22"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="28">
-      <c r="A212" s="27"/>
+      <c r="A212" s="22"/>
       <c r="B212" s="11" t="s">
         <v>89</v>
       </c>
@@ -16354,28 +16354,28 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="27"/>
+      <c r="A213" s="22"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="27"/>
+      <c r="A214" s="22"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="27"/>
+      <c r="A215" s="22"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14">
-      <c r="A216" s="27"/>
+      <c r="A216" s="22"/>
       <c r="B216" s="11" t="s">
         <v>90</v>
       </c>
@@ -16384,28 +16384,28 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="27"/>
+      <c r="A217" s="22"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="27"/>
+      <c r="A218" s="22"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="27"/>
+      <c r="A219" s="22"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14">
-      <c r="A220" s="27"/>
+      <c r="A220" s="22"/>
       <c r="B220" s="11" t="s">
         <v>91</v>
       </c>
@@ -16414,28 +16414,28 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="27"/>
+      <c r="A221" s="22"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="27"/>
+      <c r="A222" s="22"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="27"/>
+      <c r="A223" s="22"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14">
-      <c r="A224" s="27"/>
+      <c r="A224" s="22"/>
       <c r="B224" s="11" t="s">
         <v>92</v>
       </c>
@@ -16444,28 +16444,28 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="27"/>
+      <c r="A225" s="22"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="27"/>
+      <c r="A226" s="22"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="27"/>
+      <c r="A227" s="22"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="27"/>
+      <c r="A228" s="22"/>
       <c r="B228" s="7" t="s">
         <v>93</v>
       </c>
@@ -16474,21 +16474,21 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="27"/>
+      <c r="A229" s="22"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="27"/>
+      <c r="A230" s="22"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="27"/>
+      <c r="A231" s="22"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8" t="s">
         <v>37</v>
@@ -16496,17 +16496,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:A51"/>
-    <mergeCell ref="A123:A190"/>
-    <mergeCell ref="A53:A120"/>
-    <mergeCell ref="A192:A231"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="H1:N1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:A51"/>
+    <mergeCell ref="A123:A190"/>
+    <mergeCell ref="A53:A120"/>
+    <mergeCell ref="A192:A231"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
